--- a/References/ReqDocs/Driver/03_Home.xlsx
+++ b/References/ReqDocs/Driver/03_Home.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\2015FALLIS01\References\ReqDocs\Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\References\ReqDocs\Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="03.Home" sheetId="1" r:id="rId1"/>
@@ -763,41 +763,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -809,26 +782,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -856,6 +814,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -865,10 +827,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,565 +1575,565 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="65"/>
+      <c r="S4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3" t="s">
+      <c r="X4" s="65"/>
+      <c r="Y4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="7"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="7"/>
-      <c r="AB10" s="9" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="AB10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AG10" s="10" t="s">
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AG10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
     </row>
     <row r="11" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="P11" s="5"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="7"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="4"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="V11" s="4"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
     </row>
     <row r="12" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="7"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
     </row>
     <row r="13" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="F13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6" t="s">
+      <c r="S13" s="6"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="14" t="s">
+      <c r="Y13" s="6"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="15"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="14" t="s">
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="9"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="15"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="7"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="7"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="6"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="6"/>
     </row>
     <row r="15" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="P15" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="P15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="AB15" s="16" t="s">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
+      <c r="AB15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="18"/>
-      <c r="AG15" s="16" t="s">
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AG15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="18"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="59"/>
     </row>
     <row r="16" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="P16" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="P16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="19" t="s">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="7"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="18"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="18"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="59"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="P17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="P17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="19" t="s">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="7"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="7"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="6"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="6"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="6"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="P18" s="5" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="P18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="19" t="s">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="7"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="24" t="s">
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AD18" s="24" t="s">
+      <c r="AD18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="24" t="s">
+      <c r="AE18" s="6"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI18" s="24" t="s">
+      <c r="AI18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="6"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="25" t="s">
+      <c r="L19" s="13"/>
+      <c r="M19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="19" t="s">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="7"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="7"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="6"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="6"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="J20" s="26" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="J20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="19"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="6"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="6"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="30"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31" t="s">
+      <c r="J21" s="61"/>
+      <c r="K21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32" t="s">
+      <c r="L21" s="20"/>
+      <c r="M21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31" t="s">
+      <c r="P21" s="61"/>
+      <c r="Q21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
-      <c r="V21" s="33" t="s">
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
+      <c r="V21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="38"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="38"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="64"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="24"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="24"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="V22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q23" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="39" t="s">
+      <c r="W23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC23" s="39" t="s">
+      <c r="AC23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AH23" s="39" t="s">
+      <c r="AH23" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="43" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41" t="s">
+    <row r="29" spans="1:45" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C29"/>
@@ -2152,985 +2152,991 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
-      <c r="S29" s="42"/>
+      <c r="S29" s="28"/>
       <c r="T29"/>
-      <c r="U29" s="42"/>
-    </row>
-    <row r="30" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44" t="s">
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="47"/>
-    </row>
-    <row r="31" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="48">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="33"/>
+    </row>
+    <row r="31" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="34">
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="51"/>
-    </row>
-    <row r="32" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="52">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="37"/>
+    </row>
+    <row r="32" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="38">
         <v>2</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="56"/>
-    </row>
-    <row r="33" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="5">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="42"/>
+    </row>
+    <row r="33" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
-      <c r="AO33" s="55"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="56"/>
-    </row>
-    <row r="34" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="5">
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="42"/>
+    </row>
+    <row r="34" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="4">
         <v>4</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="56"/>
-    </row>
-    <row r="35" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="5">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="41"/>
+      <c r="AP34" s="41"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="42"/>
+    </row>
+    <row r="35" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="4">
         <v>4</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="55"/>
-      <c r="AO35" s="55"/>
-      <c r="AP35" s="55"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="55"/>
-      <c r="AS35" s="56"/>
-    </row>
-    <row r="36" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="5">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="42"/>
+    </row>
+    <row r="36" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="4">
         <v>5</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="55"/>
-      <c r="AP36" s="55"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="55"/>
-      <c r="AS36" s="56"/>
-    </row>
-    <row r="37" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="59">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="42"/>
+    </row>
+    <row r="37" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="45">
         <v>6</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="56"/>
-    </row>
-    <row r="38" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="5">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="42"/>
+    </row>
+    <row r="38" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="4">
         <v>7</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="56"/>
-    </row>
-    <row r="39" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="48">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="42"/>
+    </row>
+    <row r="39" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="34">
         <v>8</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="55"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="56"/>
-    </row>
-    <row r="40" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="48">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="42"/>
+    </row>
+    <row r="40" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="34">
         <v>9</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="56"/>
-    </row>
-    <row r="41" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="48">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41"/>
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="42"/>
+    </row>
+    <row r="41" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="34">
         <v>10</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="56"/>
-    </row>
-    <row r="42" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="48">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41"/>
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="42"/>
+    </row>
+    <row r="42" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="34">
         <v>11</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="56"/>
-    </row>
-    <row r="43" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="48">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="42"/>
+    </row>
+    <row r="43" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="34">
         <v>12</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="56"/>
-    </row>
-    <row r="44" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="48">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
+      <c r="AK43" s="41"/>
+      <c r="AL43" s="41"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="41"/>
+      <c r="AO43" s="41"/>
+      <c r="AP43" s="41"/>
+      <c r="AQ43" s="41"/>
+      <c r="AR43" s="41"/>
+      <c r="AS43" s="42"/>
+    </row>
+    <row r="44" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="34">
         <v>13</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="56"/>
-    </row>
-    <row r="45" spans="1:45" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="48">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="41"/>
+      <c r="AH44" s="41"/>
+      <c r="AI44" s="41"/>
+      <c r="AJ44" s="41"/>
+      <c r="AK44" s="41"/>
+      <c r="AL44" s="41"/>
+      <c r="AM44" s="41"/>
+      <c r="AN44" s="41"/>
+      <c r="AO44" s="41"/>
+      <c r="AP44" s="41"/>
+      <c r="AQ44" s="41"/>
+      <c r="AR44" s="41"/>
+      <c r="AS44" s="42"/>
+    </row>
+    <row r="45" spans="1:45" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="34">
         <v>14</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
-      <c r="AI45" s="64"/>
-      <c r="AJ45" s="64"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="64"/>
-      <c r="AN45" s="64"/>
-      <c r="AO45" s="64"/>
-      <c r="AP45" s="64"/>
-      <c r="AQ45" s="64"/>
-      <c r="AR45" s="64"/>
-      <c r="AS45" s="65"/>
-    </row>
-    <row r="46" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="48">
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="54"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54"/>
+      <c r="AL45" s="54"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="55"/>
+    </row>
+    <row r="46" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="34">
         <v>15</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55"/>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="55"/>
-      <c r="AQ46" s="55"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="56"/>
-    </row>
-    <row r="47" spans="1:45" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="48">
+      <c r="C46" s="48"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
+      <c r="AK46" s="41"/>
+      <c r="AL46" s="41"/>
+      <c r="AM46" s="41"/>
+      <c r="AN46" s="41"/>
+      <c r="AO46" s="41"/>
+      <c r="AP46" s="41"/>
+      <c r="AQ46" s="41"/>
+      <c r="AR46" s="41"/>
+      <c r="AS46" s="42"/>
+    </row>
+    <row r="47" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="34">
         <v>16</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="55"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="55"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-      <c r="AR47" s="55"/>
-      <c r="AS47" s="56"/>
-    </row>
-    <row r="48" spans="1:45" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="66">
+      <c r="C47" s="48"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41"/>
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="42"/>
+    </row>
+    <row r="48" spans="1:45" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="49">
         <v>17</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
-      <c r="AK48" s="68"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="68"/>
-      <c r="AN48" s="68"/>
-      <c r="AO48" s="68"/>
-      <c r="AP48" s="68"/>
-      <c r="AQ48" s="68"/>
-      <c r="AR48" s="68"/>
-      <c r="AS48" s="69"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="52"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="25" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB10:AE12"/>
     <mergeCell ref="C45:AS45"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AH13:AI13"/>
@@ -3140,12 +3146,6 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB10:AE12"/>
-    <mergeCell ref="AG10:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/References/ReqDocs/Driver/03_Home.xlsx
+++ b/References/ReqDocs/Driver/03_Home.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="03.Home" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,6 +824,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -854,21 +875,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,10 +1583,10 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1586,30 +1594,30 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="65"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="W4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="65"/>
+      <c r="X4" s="55"/>
       <c r="Y4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1733,18 +1741,18 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
-      <c r="AB10" s="66" t="s">
+      <c r="AB10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AG10" s="68" t="s">
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AG10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
     </row>
     <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
@@ -1759,14 +1767,14 @@
       <c r="V11" s="4"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="6"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
     </row>
     <row r="12" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
@@ -1785,14 +1793,14 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="6"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
     </row>
     <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
@@ -1820,16 +1828,16 @@
       </c>
       <c r="Y13" s="6"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="56" t="s">
+      <c r="AC13" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="56"/>
+      <c r="AD13" s="61"/>
       <c r="AE13" s="9"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="56" t="s">
+      <c r="AH13" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="56"/>
+      <c r="AI13" s="61"/>
       <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="3:36" x14ac:dyDescent="0.25">
@@ -1877,18 +1885,18 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="6"/>
-      <c r="AB15" s="57" t="s">
+      <c r="AB15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="59"/>
-      <c r="AG15" s="57" t="s">
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="64"/>
+      <c r="AG15" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="59"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="64"/>
     </row>
     <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
@@ -1911,14 +1919,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="6"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="59"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="59"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="64"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="64"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
@@ -2031,7 +2039,7 @@
       <c r="AJ19" s="6"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2039,7 +2047,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="65" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2047,7 +2055,7 @@
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
-      <c r="P20" s="60"/>
+      <c r="P20" s="65"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="14"/>
@@ -2065,7 +2073,7 @@
       <c r="AJ20" s="6"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="61"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="20" t="s">
         <v>27</v>
       </c>
@@ -2073,7 +2081,7 @@
       <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="61"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="20" t="s">
         <v>29</v>
       </c>
@@ -2081,18 +2089,18 @@
       <c r="M21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="61"/>
+      <c r="P21" s="66"/>
       <c r="Q21" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
-      <c r="V21" s="62" t="s">
+      <c r="V21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="64"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="69"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
@@ -2734,16 +2742,16 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
       <c r="W41" s="41"/>
       <c r="X41" s="41"/>
       <c r="Y41" s="41"/>
@@ -2926,51 +2934,51 @@
       <c r="B45" s="34">
         <v>14</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="55"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="59"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="59"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="59"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="59"/>
+      <c r="AL45" s="59"/>
+      <c r="AM45" s="59"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="59"/>
+      <c r="AP45" s="59"/>
+      <c r="AQ45" s="59"/>
+      <c r="AR45" s="59"/>
+      <c r="AS45" s="60"/>
     </row>
     <row r="46" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -3131,12 +3139,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB10:AE12"/>
     <mergeCell ref="C45:AS45"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AH13:AI13"/>
@@ -3146,6 +3148,12 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB10:AE12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/References/ReqDocs/Driver/03_Home.xlsx
+++ b/References/ReqDocs/Driver/03_Home.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="03.Home" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,21 +824,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -875,8 +862,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,10 +1584,10 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1594,30 +1595,30 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="55"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="55"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="55"/>
+      <c r="X4" s="69"/>
       <c r="Y4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1741,18 +1742,18 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
-      <c r="AB10" s="56" t="s">
+      <c r="AB10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AG10" s="53" t="s">
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AG10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
     </row>
     <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
@@ -1767,14 +1768,14 @@
       <c r="V11" s="4"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="6"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
     </row>
     <row r="12" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
@@ -1793,14 +1794,14 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="6"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
     </row>
     <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
@@ -1828,16 +1829,16 @@
       </c>
       <c r="Y13" s="6"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="61" t="s">
+      <c r="AC13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="61"/>
+      <c r="AD13" s="58"/>
       <c r="AE13" s="9"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="61" t="s">
+      <c r="AH13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="61"/>
+      <c r="AI13" s="58"/>
       <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="3:36" x14ac:dyDescent="0.25">
@@ -1885,18 +1886,18 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="6"/>
-      <c r="AB15" s="62" t="s">
+      <c r="AB15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="64"/>
-      <c r="AG15" s="62" t="s">
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
+      <c r="AG15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="64"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="61"/>
     </row>
     <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
@@ -1919,14 +1920,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="6"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="64"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="64"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="61"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
@@ -2039,7 +2040,7 @@
       <c r="AJ19" s="6"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="62" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2047,7 +2048,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2055,7 +2056,7 @@
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
-      <c r="P20" s="65"/>
+      <c r="P20" s="62"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="14"/>
@@ -2073,7 +2074,7 @@
       <c r="AJ20" s="6"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="66"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="20" t="s">
         <v>27</v>
       </c>
@@ -2081,7 +2082,7 @@
       <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="20" t="s">
         <v>29</v>
       </c>
@@ -2089,18 +2090,18 @@
       <c r="M21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="66"/>
+      <c r="P21" s="63"/>
       <c r="Q21" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
-      <c r="V21" s="67" t="s">
+      <c r="V21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="69"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="66"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
@@ -2287,11 +2288,11 @@
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="41"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
@@ -2334,11 +2335,11 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
       <c r="R33" s="5"/>
       <c r="S33" s="41"/>
       <c r="T33" s="5"/>
@@ -2742,16 +2743,16 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
       <c r="W41" s="41"/>
       <c r="X41" s="41"/>
       <c r="Y41" s="41"/>
@@ -2934,51 +2935,51 @@
       <c r="B45" s="34">
         <v>14</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="59"/>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="59"/>
-      <c r="AN45" s="59"/>
-      <c r="AO45" s="59"/>
-      <c r="AP45" s="59"/>
-      <c r="AQ45" s="59"/>
-      <c r="AR45" s="59"/>
-      <c r="AS45" s="60"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="56"/>
+      <c r="AP45" s="56"/>
+      <c r="AQ45" s="56"/>
+      <c r="AR45" s="56"/>
+      <c r="AS45" s="57"/>
     </row>
     <row r="46" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -3139,6 +3140,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB10:AE12"/>
     <mergeCell ref="C45:AS45"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AH13:AI13"/>
@@ -3148,15 +3155,9 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB10:AE12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/References/ReqDocs/Driver/03_Home.xlsx
+++ b/References/ReqDocs/Driver/03_Home.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\References\ReqDocs\Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuph_000\Documents\GitHub\2015FALLIS01\References\ReqDocs\Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +448,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -764,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,6 +833,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -862,22 +885,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:G43"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,10 +1592,10 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1595,30 +1603,30 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="69"/>
+      <c r="R4" s="58"/>
       <c r="S4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="69"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,18 +1750,18 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
-      <c r="AB10" s="70" t="s">
+      <c r="AB10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="70"/>
-      <c r="AG10" s="67" t="s">
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AG10" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
     </row>
     <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
@@ -1768,14 +1776,14 @@
       <c r="V11" s="4"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="6"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
     </row>
     <row r="12" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
@@ -1794,14 +1802,14 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="6"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
     </row>
     <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
@@ -1829,16 +1837,16 @@
       </c>
       <c r="Y13" s="6"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="58" t="s">
+      <c r="AC13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="58"/>
+      <c r="AD13" s="64"/>
       <c r="AE13" s="9"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="58" t="s">
+      <c r="AH13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="58"/>
+      <c r="AI13" s="64"/>
       <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="3:36" x14ac:dyDescent="0.25">
@@ -1886,18 +1894,18 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="6"/>
-      <c r="AB15" s="59" t="s">
+      <c r="AB15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="61"/>
-      <c r="AG15" s="59" t="s">
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="67"/>
+      <c r="AG15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="61"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
     </row>
     <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
@@ -1920,14 +1928,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="6"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="61"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="61"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="67"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="67"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
@@ -2040,7 +2048,7 @@
       <c r="AJ19" s="6"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="68" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2048,7 +2056,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="68" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2056,7 +2064,7 @@
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
-      <c r="P20" s="62"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="14"/>
@@ -2074,7 +2082,7 @@
       <c r="AJ20" s="6"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="63"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="20" t="s">
         <v>27</v>
       </c>
@@ -2082,7 +2090,7 @@
       <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="63"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="20" t="s">
         <v>29</v>
       </c>
@@ -2090,18 +2098,18 @@
       <c r="M21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="63"/>
+      <c r="P21" s="69"/>
       <c r="Q21" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
-      <c r="V21" s="64" t="s">
+      <c r="V21" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="66"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="72"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
@@ -2288,11 +2296,11 @@
       <c r="N32" s="39"/>
       <c r="O32" s="40"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
@@ -2935,51 +2943,51 @@
       <c r="B45" s="34">
         <v>14</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="56"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="56"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="56"/>
-      <c r="AL45" s="56"/>
-      <c r="AM45" s="56"/>
-      <c r="AN45" s="56"/>
-      <c r="AO45" s="56"/>
-      <c r="AP45" s="56"/>
-      <c r="AQ45" s="56"/>
-      <c r="AR45" s="56"/>
-      <c r="AS45" s="57"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="62"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="62"/>
+      <c r="AM45" s="62"/>
+      <c r="AN45" s="62"/>
+      <c r="AO45" s="62"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="63"/>
     </row>
     <row r="46" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -3133,19 +3141,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="E79" s="73"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB10:AE12"/>
     <mergeCell ref="C45:AS45"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AH13:AI13"/>
@@ -3155,6 +3160,12 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB10:AE12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
